--- a/output_tables/DR2_results_inv__M_reca_calibrated_421S.xlsx
+++ b/output_tables/DR2_results_inv__M_reca_calibrated_421S.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,52 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Inverted EC LT</t>
+          <t>Inverted EC LT R2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>R2 LT</t>
+          <t>Inverted EC ID R2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Inverted EC ID</t>
+          <t>Inverted EC LS R2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>R2 ID</t>
+          <t>Inverted EC 10 R2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Inverted EC LS</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>R2 LS</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Inverted EC 10</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>R2 10</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Inverted EC 50</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>R2 50</t>
+          <t>Inverted EC 50 R2</t>
         </is>
       </c>
     </row>
@@ -497,34 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.217</v>
+        <v>-16.2295</v>
       </c>
       <c r="C2" t="n">
-        <v>-17.2525</v>
+        <v>-12.281</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2015</v>
+        <v>-15.8955</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.57</v>
+        <v>-7.081</v>
       </c>
       <c r="F2" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-16.8955</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-4.067</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.274</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-46.66</v>
+        <v>-36.97199999999999</v>
       </c>
     </row>
   </sheetData>

--- a/output_tables/DR2_results_inv__M_reca_calibrated_421S.xlsx
+++ b/output_tables/DR2_results_inv__M_reca_calibrated_421S.xlsx
@@ -468,23 +468,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vwc</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.2295</v>
+        <v>-15.401</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.281</v>
+        <v>-12.989</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.8955</v>
+        <v>-14.8495</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.081</v>
+        <v>-9.192</v>
       </c>
       <c r="F2" t="n">
-        <v>-36.97199999999999</v>
+        <v>-30.351</v>
       </c>
     </row>
   </sheetData>
